--- a/SubwayData/Excel/경춘선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/경춘선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF08103-78ED-4442-8606-C3D5731E2720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF265468-C94E-2F43-9C8A-22986DDC39D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{E7EDB2C1-E283-B847-92F6-3C2B21FB0A6D}"/>
   </bookViews>
@@ -79,9 +79,6 @@
     <t>갈매</t>
   </si>
   <si>
-    <t>별내(삼육대학교)</t>
-  </si>
-  <si>
     <t>퇴계원</t>
   </si>
   <si>
@@ -106,34 +103,44 @@
     <t>청평</t>
   </si>
   <si>
-    <t>상천(호명호수)</t>
-  </si>
-  <si>
-    <t>가평(자라섬·남이섬)</t>
-  </si>
-  <si>
-    <t>굴봉산(제이드가든)</t>
-  </si>
-  <si>
-    <t>백양리(엘리시안강촌)</t>
-  </si>
-  <si>
     <t>강촌</t>
   </si>
   <si>
     <t>김유정</t>
   </si>
   <si>
-    <t>춘천(한림대)</t>
-  </si>
-  <si>
-    <t>남춘천(강원대)</t>
-  </si>
-  <si>
     <t>광운대</t>
   </si>
   <si>
     <t>상봉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가평</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>굴봉산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백양리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남춘천</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +551,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -672,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>1.5</v>
@@ -686,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
         <v>1.6</v>
@@ -700,7 +707,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>3.3</v>
@@ -714,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>3.6</v>
@@ -728,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -742,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3">
         <v>4</v>
@@ -756,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3">
         <v>2.2000000000000002</v>
@@ -770,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="3">
         <v>7.4</v>
@@ -784,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3">
         <v>7.5</v>
@@ -798,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3">
         <v>4.8</v>
@@ -812,7 +819,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3">
         <v>7.1</v>
@@ -826,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D20" s="3">
         <v>4.7</v>
@@ -840,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3">
         <v>2.9</v>
@@ -854,7 +861,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3">
         <v>5.3</v>
@@ -868,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3">
         <v>7.4</v>
@@ -882,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3">
         <v>2.7</v>
@@ -896,7 +903,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D25" s="3">
         <v>5.9</v>
@@ -910,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
@@ -924,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1">
         <v>4.3</v>
